--- a/data/case1/18/V1_1.xlsx
+++ b/data/case1/18/V1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999148558838</v>
+        <v>0.99999999674889284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99536293174865043</v>
+        <v>0.99484487425170753</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97483814769840604</v>
+        <v>0.97406709661112678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96556112592461529</v>
+        <v>0.96441836640539202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95670952370020923</v>
+        <v>0.95518455114105572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93664848068780404</v>
+        <v>0.93254206692299757</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93398596903321018</v>
+        <v>0.93157892049508173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93155827190933538</v>
+        <v>0.93082146991542725</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93098059219109297</v>
+        <v>0.91907050337240492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93136304291778527</v>
+        <v>0.90823815978291544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93159113624343859</v>
+        <v>0.90664155344603636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93228210996742367</v>
+        <v>0.90386097830346934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92099587521062798</v>
+        <v>0.8925713305927816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91682873955670829</v>
+        <v>0.88840334746157379</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.91423736687004054</v>
+        <v>0.88581152633085369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.91173094164231627</v>
+        <v>0.88330480278511336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90802308999328951</v>
+        <v>0.87959661802019018</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90691418978371607</v>
+        <v>0.87848767507403269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99417272232364517</v>
+        <v>0.99308070669931348</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98574426496161616</v>
+        <v>0.98596347018235153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98434578912567816</v>
+        <v>0.98456495143046308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98308128128691252</v>
+        <v>0.98330043944554391</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96780269858169732</v>
+        <v>0.96785095106046604</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95478114788370361</v>
+        <v>0.95719759888266276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94832404629285305</v>
+        <v>0.95074049840131281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93374664005341357</v>
+        <v>0.92888532109111155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.92994924123955924</v>
+        <v>0.92403722047081138</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.91561659672034734</v>
+        <v>0.90255927154942295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.90562067882491804</v>
+        <v>0.88728586638861606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9008320113898225</v>
+        <v>0.88071498193389219</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.89973017535694777</v>
+        <v>0.87306066939027405</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.90056758228524303</v>
+        <v>0.87138128118663283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.90383885265345953</v>
+        <v>0.87086125606632625</v>
       </c>
     </row>
   </sheetData>
